--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dll4-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dll4-Notch1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.333402</v>
+        <v>41.43823833333334</v>
       </c>
       <c r="H2">
-        <v>73.00020600000001</v>
+        <v>124.314715</v>
       </c>
       <c r="I2">
-        <v>0.9697175080062574</v>
+        <v>0.981992391336623</v>
       </c>
       <c r="J2">
-        <v>0.9697175080062576</v>
+        <v>0.9819923913366232</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N2">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O2">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P2">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q2">
-        <v>1118.278321569494</v>
+        <v>2006.613941270637</v>
       </c>
       <c r="R2">
-        <v>10064.50489412545</v>
+        <v>18059.52547143574</v>
       </c>
       <c r="S2">
-        <v>0.6001764794628546</v>
+        <v>0.6198102778020191</v>
       </c>
       <c r="T2">
-        <v>0.6001764794628547</v>
+        <v>0.6198102778020192</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.333402</v>
+        <v>41.43823833333334</v>
       </c>
       <c r="H3">
-        <v>73.00020600000001</v>
+        <v>124.314715</v>
       </c>
       <c r="I3">
-        <v>0.9697175080062574</v>
+        <v>0.981992391336623</v>
       </c>
       <c r="J3">
-        <v>0.9697175080062576</v>
+        <v>0.9819923913366232</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N3">
         <v>20.549744</v>
       </c>
       <c r="O3">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P3">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q3">
-        <v>166.681727249696</v>
+        <v>283.8483965203289</v>
       </c>
       <c r="R3">
-        <v>1500.135545247264</v>
+        <v>2554.63556868296</v>
       </c>
       <c r="S3">
-        <v>0.08945756196999972</v>
+        <v>0.08767613434875181</v>
       </c>
       <c r="T3">
-        <v>0.08945756196999972</v>
+        <v>0.08767613434875182</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.333402</v>
+        <v>41.43823833333334</v>
       </c>
       <c r="H4">
-        <v>73.00020600000001</v>
+        <v>124.314715</v>
       </c>
       <c r="I4">
-        <v>0.9697175080062574</v>
+        <v>0.981992391336623</v>
       </c>
       <c r="J4">
-        <v>0.9697175080062576</v>
+        <v>0.9819923913366232</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>21.446458</v>
       </c>
       <c r="N4">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O4">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P4">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q4">
-        <v>521.8652839901162</v>
+        <v>888.7034380098232</v>
       </c>
       <c r="R4">
-        <v>4696.787555911045</v>
+        <v>7998.33094208841</v>
       </c>
       <c r="S4">
-        <v>0.2800834665734031</v>
+        <v>0.274505979185852</v>
       </c>
       <c r="T4">
-        <v>0.2800834665734031</v>
+        <v>0.2745059791858521</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.866661</v>
       </c>
       <c r="I5">
-        <v>0.01151252018667195</v>
+        <v>0.006845967574057415</v>
       </c>
       <c r="J5">
-        <v>0.01151252018667195</v>
+        <v>0.006845967574057417</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N5">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O5">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P5">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q5">
-        <v>13.27623936362233</v>
+        <v>13.98912465797433</v>
       </c>
       <c r="R5">
-        <v>119.486154272601</v>
+        <v>125.902121921769</v>
       </c>
       <c r="S5">
-        <v>0.007125316165104478</v>
+        <v>0.004321012159905412</v>
       </c>
       <c r="T5">
-        <v>0.007125316165104479</v>
+        <v>0.004321012159905413</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.866661</v>
       </c>
       <c r="I6">
-        <v>0.01151252018667195</v>
+        <v>0.006845967574057415</v>
       </c>
       <c r="J6">
-        <v>0.01151252018667195</v>
+        <v>0.006845967574057417</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N6">
         <v>20.549744</v>
       </c>
       <c r="O6">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P6">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q6">
         <v>1.978851298309333</v>
@@ -818,10 +818,10 @@
         <v>17.809661684784</v>
       </c>
       <c r="S6">
-        <v>0.00106204330593919</v>
+        <v>0.0006112348507642364</v>
       </c>
       <c r="T6">
-        <v>0.00106204330593919</v>
+        <v>0.0006112348507642365</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.866661</v>
       </c>
       <c r="I7">
-        <v>0.01151252018667195</v>
+        <v>0.006845967574057415</v>
       </c>
       <c r="J7">
-        <v>0.01151252018667195</v>
+        <v>0.006845967574057417</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>21.446458</v>
       </c>
       <c r="N7">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O7">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P7">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q7">
-        <v>6.195602912246001</v>
+        <v>6.195602912245999</v>
       </c>
       <c r="R7">
-        <v>55.76042621021401</v>
+        <v>55.76042621021399</v>
       </c>
       <c r="S7">
-        <v>0.003325160715628283</v>
+        <v>0.001913720563387767</v>
       </c>
       <c r="T7">
-        <v>0.003325160715628283</v>
+        <v>0.001913720563387767</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>1.413001</v>
       </c>
       <c r="I8">
-        <v>0.01876997180707065</v>
+        <v>0.01116164108931947</v>
       </c>
       <c r="J8">
-        <v>0.01876997180707065</v>
+        <v>0.01116164108931947</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N8">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O8">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P8">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q8">
-        <v>21.64553325583789</v>
+        <v>22.80781889440322</v>
       </c>
       <c r="R8">
-        <v>194.809799302541</v>
+        <v>205.270370049629</v>
       </c>
       <c r="S8">
-        <v>0.01161709003475268</v>
+        <v>0.007044962797401183</v>
       </c>
       <c r="T8">
-        <v>0.01161709003475268</v>
+        <v>0.007044962797401184</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.413001</v>
       </c>
       <c r="I9">
-        <v>0.01876997180707065</v>
+        <v>0.01116164108931947</v>
       </c>
       <c r="J9">
-        <v>0.01876997180707065</v>
+        <v>0.01116164108931947</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N9">
         <v>20.549744</v>
       </c>
       <c r="O9">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P9">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q9">
-        <v>3.226312091304888</v>
+        <v>3.226312091304889</v>
       </c>
       <c r="R9">
         <v>29.036808821744</v>
       </c>
       <c r="S9">
-        <v>0.001731551613993686</v>
+        <v>0.0009965551182812156</v>
       </c>
       <c r="T9">
-        <v>0.001731551613993686</v>
+        <v>0.0009965551182812161</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.413001</v>
       </c>
       <c r="I10">
-        <v>0.01876997180707065</v>
+        <v>0.01116164108931947</v>
       </c>
       <c r="J10">
-        <v>0.01876997180707065</v>
+        <v>0.01116164108931947</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>21.446458</v>
       </c>
       <c r="N10">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O10">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P10">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q10">
         <v>10.10128886681933</v>
       </c>
       <c r="R10">
-        <v>90.91159980137401</v>
+        <v>90.91159980137398</v>
       </c>
       <c r="S10">
-        <v>0.005421330158324279</v>
+        <v>0.003120123173637071</v>
       </c>
       <c r="T10">
-        <v>0.00542133015832428</v>
+        <v>0.003120123173637072</v>
       </c>
     </row>
   </sheetData>
